--- a/Team Metric Charts.xlsx
+++ b/Team Metric Charts.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Experian\Sprint-Review Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Experian\Sprint-Review Docs\agile-scrum-documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="17760" windowHeight="7308" tabRatio="745" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="17760" windowHeight="7308" tabRatio="745"/>
   </bookViews>
   <sheets>
-    <sheet name="Goblins Release Burn-up" sheetId="5" r:id="rId1"/>
-    <sheet name="Goblins Velocity" sheetId="4" r:id="rId2"/>
-    <sheet name="Goblins Focus Factor" sheetId="8" r:id="rId3"/>
+    <sheet name="Team Release Burn-up" sheetId="5" r:id="rId1"/>
+    <sheet name="Team Velocity" sheetId="4" r:id="rId2"/>
+    <sheet name="Team Focus Factor" sheetId="8" r:id="rId3"/>
     <sheet name="Quality Gates" sheetId="11" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="25" r:id="rId5"/>
   </sheets>
@@ -121,9 +121,6 @@
     <t>Rhea</t>
   </si>
   <si>
-    <t>2018R1 - Originations Bugs Trend (end of each sprint)</t>
-  </si>
-  <si>
     <t>2018R1 - Originations Veracode Medium Flaws Trend</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Sprint 21</t>
+  </si>
+  <si>
+    <t>2018R1 - Product Bugs Trend (end of each sprint)</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Goblins 2018R1 </a:t>
+              <a:t>Team 2018R1 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -330,7 +330,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Goblins Release Burn-up'!$C$3</c:f>
+              <c:f>'Team Release Burn-up'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -374,7 +374,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Goblins Release Burn-up'!$B$4:$B$13</c:f>
+              <c:f>'Team Release Burn-up'!$B$4:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -412,7 +412,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Goblins Release Burn-up'!$C$4:$C$13</c:f>
+              <c:f>'Team Release Burn-up'!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -451,7 +451,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Goblins Release Burn-up'!$D$3</c:f>
+              <c:f>'Team Release Burn-up'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -508,7 +508,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Goblins Release Burn-up'!$B$4:$B$13</c:f>
+              <c:f>'Team Release Burn-up'!$B$4:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -546,7 +546,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Goblins Release Burn-up'!$D$4:$D$13</c:f>
+              <c:f>'Team Release Burn-up'!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -601,7 +601,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Goblins Release Burn-up'!$E$3</c:f>
+              <c:f>'Team Release Burn-up'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -633,7 +633,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Goblins Release Burn-up'!$B$4:$B$13</c:f>
+              <c:f>'Team Release Burn-up'!$B$4:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -671,7 +671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Goblins Release Burn-up'!$E$4:$E$13</c:f>
+              <c:f>'Team Release Burn-up'!$E$4:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -827,7 +827,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Goblins 2018R1 Sprint Velocity &amp; Average Velocity</a:t>
+              <a:t>Team 2018R1 Sprint Velocity &amp; Average Velocity</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -903,7 +903,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Goblins Velocity'!$B$4:$B$24</c:f>
+              <c:f>'Team Velocity'!$B$4:$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -974,7 +974,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Goblins Velocity'!$C$4:$C$24</c:f>
+              <c:f>'Team Velocity'!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1056,7 +1056,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Goblins Velocity'!$B$4:$B$24</c:f>
+              <c:f>'Team Velocity'!$B$4:$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -1127,7 +1127,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Goblins Velocity'!$D$4:$D$24</c:f>
+              <c:f>'Team Velocity'!$D$4:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1314,7 +1314,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Goblins Focus Factor</a:t>
+              <a:t>Team Focus Factor</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1332,7 +1332,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Goblins Focus Factor'!$E$3</c:f>
+              <c:f>'Team Focus Factor'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1368,7 +1368,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Goblins Focus Factor'!$B$4:$B$24</c:f>
+              <c:f>'Team Focus Factor'!$B$4:$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -1439,7 +1439,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Goblins Focus Factor'!$E$4:$E$24</c:f>
+              <c:f>'Team Focus Factor'!$E$4:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1623,7 +1623,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Originations </a:t>
+              <a:t>Product </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -3445,8 +3445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3663,8 +3663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>98</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>77</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>111</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>117</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>47</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>104</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>105</v>
@@ -3950,8 +3950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>95</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>75</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>47</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>95</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>95</v>
@@ -4310,7 +4310,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:G96"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -4473,7 +4473,7 @@
     </row>
     <row r="31" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">

--- a/Team Metric Charts.xlsx
+++ b/Team Metric Charts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Experian\Sprint-Review Docs\agile-scrum-documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naman\GitRepo\agile-scrum-documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45223CAF-4511-47B3-B84F-98E596C914EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="17760" windowHeight="7308" tabRatio="745"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="745" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Release Burn-up" sheetId="5" r:id="rId1"/>
@@ -18,7 +19,15 @@
     <sheet name="Quality Gates" sheetId="11" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="25" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -826,8 +835,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Team 2018R1 Sprint Velocity &amp; Average Velocity</a:t>
+              <a:rPr lang="en-GB">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="Browallia New" panose="020B0604020202020204" pitchFamily="34" charset="-34"/>
+                <a:cs typeface="Browallia New" panose="020B0604020202020204" pitchFamily="34" charset="-34"/>
+              </a:rPr>
+              <a:t>Team 2019R1 Sprint Velocity &amp; Average Velocity</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1313,7 +1328,13 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="Browallia New" panose="020B0604020202020204" pitchFamily="34" charset="-34"/>
+                <a:cs typeface="Browallia New" panose="020B0604020202020204" pitchFamily="34" charset="-34"/>
+              </a:rPr>
               <a:t>Team Focus Factor</a:t>
             </a:r>
           </a:p>
@@ -1622,14 +1643,13 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Product </a:t>
+              <a:rPr lang="en-GB">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Product Bugs Trend @end of each sprint</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>Bugs Trend @end of each sprint</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1670,22 +1690,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -1786,20 +1790,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -1893,25 +1883,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -2005,22 +1976,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -2116,6 +2071,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="68283776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
@@ -2142,13 +2107,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Bugs</a:t>
+                  <a:t>Bugs Count</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Count</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2166,11 +2126,34 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Browallia New" panose="020B0604020202020204" pitchFamily="34" charset="-34"/>
+          <a:cs typeface="Browallia New" panose="020B0604020202020204" pitchFamily="34" charset="-34"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3442,22 +3425,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -3470,7 +3453,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -3487,7 +3470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -3505,7 +3488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -3523,7 +3506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -3541,7 +3524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -3559,7 +3542,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -3577,7 +3560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -3595,7 +3578,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -3607,7 +3590,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -3619,7 +3602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -3631,22 +3614,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I18">
         <f>SUM(I4:I14)</f>
         <v>553</v>
@@ -3660,25 +3643,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3687,7 +3670,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -3701,7 +3684,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -3715,7 +3698,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -3729,7 +3712,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -3743,7 +3726,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -3757,7 +3740,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -3771,7 +3754,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -3785,7 +3768,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -3796,7 +3779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -3807,7 +3790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -3818,7 +3801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -3829,7 +3812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -3840,7 +3823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -3851,7 +3834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -3862,7 +3845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -3873,7 +3856,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -3884,7 +3867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -3895,7 +3878,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>35</v>
       </c>
@@ -3906,7 +3889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -3917,7 +3900,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -3928,7 +3911,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -3947,19 +3930,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -3971,7 +3954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -3986,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -4001,7 +3984,7 @@
         <v>0.23880597014925373</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -4016,7 +3999,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -4031,7 +4014,7 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -4046,7 +4029,7 @@
         <v>0.60240963855421692</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -4061,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -4076,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -4091,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -4106,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -4121,7 +4104,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -4136,7 +4119,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -4151,7 +4134,7 @@
         <v>1.1764705882352942</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -4166,7 +4149,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -4181,7 +4164,7 @@
         <v>1.2421052631578948</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -4196,7 +4179,7 @@
         <v>1.0315789473684212</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -4211,7 +4194,7 @@
         <v>1.0266666666666666</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -4226,7 +4209,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>35</v>
       </c>
@@ -4241,7 +4224,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -4256,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -4271,7 +4254,7 @@
         <v>1.0947368421052632</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -4286,7 +4269,7 @@
         <v>1.1052631578947369</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E25" s="5"/>
     </row>
   </sheetData>
@@ -4306,33 +4289,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
@@ -4346,7 +4329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4364,7 +4347,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
@@ -4382,7 +4365,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
@@ -4400,7 +4383,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
@@ -4418,65 +4401,65 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
     </row>
-    <row r="31" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>27</v>
       </c>
@@ -4496,7 +4479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -4520,7 +4503,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -4544,7 +4527,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>3</v>
       </c>
@@ -4568,7 +4551,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>4</v>
       </c>
@@ -4592,66 +4575,66 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="10"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -4659,99 +4642,99 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
     </row>
-    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A82" s="10"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
     </row>
   </sheetData>
@@ -4762,46 +4745,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
     </row>
   </sheetData>

--- a/Team Metric Charts.xlsx
+++ b/Team Metric Charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naman\GitRepo\agile-scrum-documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45223CAF-4511-47B3-B84F-98E596C914EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C578FF9D-7426-474D-B069-CDF5FC47ACCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="745" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Release Burn-up" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -842,7 +844,7 @@
                 <a:latin typeface="Browallia New" panose="020B0604020202020204" pitchFamily="34" charset="-34"/>
                 <a:cs typeface="Browallia New" panose="020B0604020202020204" pitchFamily="34" charset="-34"/>
               </a:rPr>
-              <a:t>Team 2019R1 Sprint Velocity &amp; Average Velocity</a:t>
+              <a:t>Team Sprint Velocity &amp; Average Velocity</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3646,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,7 +4294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
